--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1283055.144700896</v>
+        <v>1279042.534686903</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283189</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>298.7307299422376</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292587</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>19.68942351146712</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851113</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824781</v>
+        <v>18.81721868247899</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734097636</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414546</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>107.3285010351622</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>157.7822070347177</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>98.61547224346054</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>222.8039220598685</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>222.2540466118162</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>136.0033847776002</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>8.275899653937708</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1296,16 +1296,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>93.47758125341755</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>192.1675620474802</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634816</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>129.5380597272477</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>75.00788511618128</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,13 +1584,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1779,13 +1779,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>39.83255574579442</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>55.52079624060509</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>49.34762173749063</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>125.8152577453158</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>62.1884230276014</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>26.05480806223599</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>63.1628130171261</v>
+        <v>80.11763046889845</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>37.41782514684017</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>19.88691958258317</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3085,7 +3085,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3189,19 +3189,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>126.926382450742</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>35.88641949135589</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>19.91555826189198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>158.2465685970616</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>38.61213096654735</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>128.5251451036098</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3951,16 +3951,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>243.4759147696085</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>42.5313457611372</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>105.3219429113318</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4185,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1678.62132134232</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839474</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052371</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609173</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136268</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410105</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066534</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.50962791956</v>
+        <v>2277.953133796419</v>
       </c>
       <c r="Y2" t="n">
-        <v>1678.62132134232</v>
+        <v>2277.953133796419</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811093</v>
+        <v>941.5438544811102</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999823</v>
+        <v>767.0908251999832</v>
       </c>
       <c r="D3" t="n">
-        <v>618.156415538731</v>
+        <v>618.1564155387319</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332755</v>
+        <v>458.9189605332764</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601605</v>
+        <v>312.3844025601614</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927795</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064616</v>
+        <v>85.51940803064709</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228009</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158138</v>
       </c>
       <c r="M3" t="n">
         <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992585</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.91239341064</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886743</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533343</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297194</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199867</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471665</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266132</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="4">
@@ -4464,40 +4464,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>906.9191734699996</v>
+        <v>848.0708164780107</v>
       </c>
       <c r="C4" t="n">
-        <v>737.9829905420927</v>
+        <v>679.1346335501038</v>
       </c>
       <c r="D4" t="n">
-        <v>587.8663511297569</v>
+        <v>529.017994137768</v>
       </c>
       <c r="E4" t="n">
-        <v>439.9532575473638</v>
+        <v>381.1049005553749</v>
       </c>
       <c r="F4" t="n">
-        <v>439.9532575473638</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>272.2504209220828</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218346</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791191</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279956</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764919</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760409</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581906</v>
@@ -4506,34 +4506,34 @@
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935979</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1134.908724368017</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>1134.908724368017</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>906.9191734699996</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>906.9191734699996</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1517.887535471216</v>
+        <v>1648.004869410821</v>
       </c>
       <c r="C5" t="n">
-        <v>1517.887535471216</v>
+        <v>1279.042352470409</v>
       </c>
       <c r="D5" t="n">
-        <v>1159.621836864466</v>
+        <v>920.7766538636586</v>
       </c>
       <c r="E5" t="n">
-        <v>1159.621836864466</v>
+        <v>920.7766538636586</v>
       </c>
       <c r="F5" t="n">
-        <v>748.6359320748581</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>333.5634819198546</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4576,13 +4576,13 @@
         <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410103</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796418</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535338</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535338</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1837.464090846021</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>1582.779602640134</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>1293.362432603173</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1068.863395621541</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>848.0708164780106</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1934.208022973022</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1340.24392931281</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>954.4556767145652</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>543.4697719249577</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3317.246327009233</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3063.71585028307</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V8" t="n">
-        <v>3063.71585028307</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2710.947195012955</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X8" t="n">
-        <v>2710.947195012955</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>2320.807863037144</v>
+        <v>1698.50962791956</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>477.7831921883597</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>308.8470092604529</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>308.8470092604529</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>160.9339156780597</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>160.9339156780597</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368016</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V10" t="n">
-        <v>880.2242361621296</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W10" t="n">
-        <v>880.2242361621296</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>880.2242361621296</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>659.4316570185995</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,64 +5029,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756267</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L12" t="n">
-        <v>243.4633055756267</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M12" t="n">
-        <v>840.8417932021788</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N12" t="n">
-        <v>1468.439756756786</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>2020.349486996073</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2443.972636491141</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1092.345997432835</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C13" t="n">
-        <v>923.4098145049284</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="D13" t="n">
-        <v>773.2931750925926</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="E13" t="n">
-        <v>625.3800815101995</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>478.4901340122891</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>311.294034727169</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>169.5822035693672</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.776592304622</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.787041406605</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.994462263075</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5257,28 +5257,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075809</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021787</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756786</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996073</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.972636491141</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.672526468518</v>
+        <v>915.1035305473698</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>746.1673476194629</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>596.0507082071272</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>448.1376146247341</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797189</v>
+        <v>301.2476671268237</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797189</v>
+        <v>134.0515678417036</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>134.0515678417036</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.280006238955</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.204779583153</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.520291377266</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.103121340305</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.113570442288</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3209912987577</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,25 +5503,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5545,10 +5545,10 @@
         <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>916.3099000622261</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C19" t="n">
-        <v>747.3737171343192</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T19" t="n">
-        <v>2379.917379832663</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U19" t="n">
-        <v>2090.842153176861</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V19" t="n">
-        <v>1836.157664970974</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W19" t="n">
-        <v>1546.740494934013</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X19" t="n">
-        <v>1318.750944035996</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y19" t="n">
-        <v>1097.958364892466</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362672</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5843,16 +5843,16 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>762.547769317909</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4311299055732</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5986,10 +5986,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075805</v>
@@ -5998,13 +5998,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>554.5813165460164</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>385.6451336181095</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
@@ -6171,28 +6171,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2420.645095638608</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2237.790261293512</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2018.188796316454</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1729.113569660651</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1474.429081454764</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1185.011911417804</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>957.0223605197863</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>736.2297813762561</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6235,10 +6235,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,31 +6247,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2297.690135143765</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>800.5007694647277</v>
       </c>
       <c r="C28" t="n">
-        <v>695.5020655703109</v>
+        <v>631.5645865368208</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579363</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373476</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336515</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1202.941813438498</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>982.1492342949674</v>
       </c>
     </row>
     <row r="29">
@@ -6454,43 +6454,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,7 +6536,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
         <v>95.58405025273905</v>
@@ -6548,22 +6548,22 @@
         <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958739</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C31" t="n">
-        <v>802.9288273958739</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D31" t="n">
-        <v>652.8121879835381</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>504.899094401145</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304622</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369644</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261136</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6736,13 +6736,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6776,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2410.714175003133</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2191.112710026075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
@@ -6925,19 +6925,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2824.769373306003</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C37" t="n">
-        <v>2655.833190378096</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>2505.71655096576</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>2357.803457383367</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>2337.686731866304</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>2337.686731866304</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>2337.686731866304</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>4507.978318053498</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>4288.376853076439</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U37" t="n">
-        <v>3999.301626420637</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V37" t="n">
-        <v>3744.61713821475</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W37" t="n">
-        <v>3455.19996817779</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X37" t="n">
-        <v>3227.210417279773</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y37" t="n">
-        <v>3006.417838136243</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="38">
@@ -7165,19 +7165,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,25 +7250,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>594.8179559048574</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7399,19 +7399,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
         <v>852.8523611075807</v>
@@ -7420,10 +7420,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313768</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F43" t="n">
         <v>484.8112968429803</v>
@@ -7599,22 +7599,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1975.033022579363</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7654,16 +7654,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7730,25 +7730,25 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1337.934786622704</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1965.532750177311</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>768.5380889459582</v>
+        <v>696.7084350851671</v>
       </c>
       <c r="C46" t="n">
-        <v>599.6019060180513</v>
+        <v>527.7722521572603</v>
       </c>
       <c r="D46" t="n">
-        <v>449.4852666057155</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E46" t="n">
-        <v>449.4852666057155</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>449.4852666057155</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>282.2891673205955</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V46" t="n">
-        <v>1688.385853854706</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W46" t="n">
-        <v>1398.968683817745</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X46" t="n">
-        <v>1170.979132919728</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y46" t="n">
-        <v>950.1865537761979</v>
+        <v>878.3568999154069</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-1.598721155460225e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>16.89590291932146</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>6.25795120238422</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>41.43328057277111</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>125.5054897610395</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>99.26785128072171</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>19.60579027761547</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>84.24553961896777</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>40.32043864788569</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>85.45266000108626</v>
+        <v>68.4978425493139</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>111.1976478713722</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>125.5341284403481</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25077,19 +25077,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>145.1398665102887</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>125.5054897610393</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>127.9379057921825</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>110.003342051665</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>51.30683507832748</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25839,16 +25839,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>43.04708356698248</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>106.0841272570752</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>34.97276993489206</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>941027.412908766</v>
+        <v>941027.4129087658</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>941027.4129087657</v>
+        <v>941027.4129087658</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>941027.412908766</v>
+        <v>941027.4129087658</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>941027.4129087657</v>
+        <v>941027.4129087658</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>941027.412908766</v>
+        <v>941027.4129087658</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>941027.4129087657</v>
+        <v>941027.412908766</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>941027.412908766</v>
+        <v>941027.4129087658</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>941027.4129087658</v>
+        <v>941027.412908766</v>
       </c>
     </row>
   </sheetData>
@@ -26313,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>492625.0619185701</v>
+        <v>492625.06191857</v>
       </c>
       <c r="C2" t="n">
-        <v>492625.0619185699</v>
+        <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
         <v>492625.06191857</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="F2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140038</v>
       </c>
       <c r="G2" t="n">
         <v>484287.9598140036</v>
@@ -26343,13 +26343,13 @@
         <v>484287.9598140037</v>
       </c>
       <c r="L2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="N2" t="n">
-        <v>484287.9598140035</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="O2" t="n">
         <v>484287.9598140037</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92793.84288319389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>92793.84288319398</v>
+      </c>
+      <c r="D4" t="n">
         <v>92793.84288319401</v>
       </c>
-      <c r="C4" t="n">
-        <v>92793.84288319401</v>
-      </c>
-      <c r="D4" t="n">
-        <v>92793.84288319404</v>
-      </c>
       <c r="E4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="O4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184275</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184274</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-1036847.46725361</v>
       </c>
       <c r="C6" t="n">
-        <v>291897.2784739828</v>
+        <v>291897.2784739833</v>
       </c>
       <c r="D6" t="n">
-        <v>291897.2784739826</v>
+        <v>291897.2784739827</v>
       </c>
       <c r="E6" t="n">
-        <v>44146.16007089807</v>
+        <v>43798.78081654171</v>
       </c>
       <c r="F6" t="n">
-        <v>369558.6218782538</v>
+        <v>369211.242623897</v>
       </c>
       <c r="G6" t="n">
-        <v>369558.6218782541</v>
+        <v>369211.2426238966</v>
       </c>
       <c r="H6" t="n">
-        <v>369558.6218782539</v>
+        <v>369211.2426238967</v>
       </c>
       <c r="I6" t="n">
-        <v>369558.6218782538</v>
+        <v>369211.2426238971</v>
       </c>
       <c r="J6" t="n">
-        <v>152027.4194809762</v>
+        <v>151680.0402266193</v>
       </c>
       <c r="K6" t="n">
-        <v>369558.6218782536</v>
+        <v>369211.2426238969</v>
       </c>
       <c r="L6" t="n">
-        <v>369558.621878254</v>
+        <v>369211.2426238968</v>
       </c>
       <c r="M6" t="n">
-        <v>284503.5939427418</v>
+        <v>284156.214688385</v>
       </c>
       <c r="N6" t="n">
-        <v>369558.6218782536</v>
+        <v>369211.2426238969</v>
       </c>
       <c r="O6" t="n">
-        <v>369558.6218782539</v>
+        <v>369211.2426238969</v>
       </c>
       <c r="P6" t="n">
-        <v>369558.6218782539</v>
+        <v>369211.2426238967</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26816,7 +26816,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022933</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>66.54216182876996</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>366.5485151445865</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>37.42651387915855</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983806</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004729</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>94.35543628911034</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>308.2605734982509</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>71.80384232745195</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,16 +27830,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>94.0442761581327</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>3.455608777220931</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>274.9183408758533</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>195.6420704856824</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,16 +28016,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>72.54822700561067</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>94.0442761581327</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -31041,10 +31041,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.3810118616816</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.8670377284467</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
@@ -31053,31 +31053,31 @@
         <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003813</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623196</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574997</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095027</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099062</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746416</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781692</v>
       </c>
       <c r="R2" t="n">
         <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806955</v>
       </c>
       <c r="T2" t="n">
         <v>19.17787942451121</v>
@@ -31126,43 +31126,43 @@
         <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752261</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353159</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138798</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233477</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837927</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970252</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987488</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238318</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898503</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1542136840462216</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,19 +31205,19 @@
         <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742022</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297391</v>
       </c>
       <c r="K4" t="n">
         <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098821</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316434</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883116</v>
@@ -31232,13 +31232,13 @@
         <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.3612387071222</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112299</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31606,7 +31606,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>250.1723312270658</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>213.1625787491737</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,10 +32785,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
@@ -32800,13 +32800,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>746.4857620875799</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33037,19 +33037,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>360.9226811202611</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33423,7 +33423,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33511,7 +33511,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>428.7353800421384</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
@@ -33523,7 +33523,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33666,7 +33666,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33733,25 +33733,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>242.2322097768141</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>669.466988500007</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33985,13 +33985,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34155,7 +34155,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34207,31 +34207,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>409.0029787211721</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>752.2150000824579</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
@@ -34450,7 +34450,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,7 +34462,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>699.0496615458086</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34471,7 +34471,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34701,28 +34701,28 @@
         <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554007</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923324</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.921115830227</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129117</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882195</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193721</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037197</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222489</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.62350453597719</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609569</v>
       </c>
       <c r="L3" t="n">
         <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013294</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004594</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525808</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859627</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306628</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443197</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701982</v>
@@ -34871,13 +34871,13 @@
         <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226399</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789371</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>110.1905571410443</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>73.18080466315214</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,25 +35968,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,25 +36205,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
@@ -36448,13 +36448,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>615.1440500042467</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36685,19 +36685,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>220.9409070342396</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37071,7 +37071,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37159,7 +37159,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>297.3936679588052</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>103.6778299969399</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>526.8707440555626</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37633,13 +37633,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>266.8689447991538</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>620.8732879991246</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
         <v>37.00975247789211</v>
@@ -38098,7 +38098,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,7 +38110,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>556.4534171013642</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_24.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1279042.534686903</v>
+        <v>1280803.064989689</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283189</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>298.7307299422376</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>24.14763241892727</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247899</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>7.885759353426553</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -834,10 +834,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>157.7822070347177</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>57.81578986397397</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>98.61547224346054</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -995,7 +995,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>192.1675620474802</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>259.0206322914228</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>136.0033847776002</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>5.82902242535144</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1299,13 +1299,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>77.31354443380452</v>
       </c>
       <c r="U10" t="n">
-        <v>192.1675620474802</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1527,16 +1527,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="E13" t="n">
-        <v>129.5380597272477</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>27.77749086859478</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>39.83255574579442</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>56.04917322725603</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>125.8152577453158</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2089,7 +2089,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>62.1884230276014</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>245.9454996361813</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>134.3542165280282</v>
       </c>
       <c r="D25" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2715,10 +2715,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>80.11763046889845</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>174.4028203107102</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D31" t="n">
-        <v>37.41782514684017</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>126.926382450742</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>235.8905539345552</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>103.8784673763408</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>158.2465685970616</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>111.5512144998722</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>128.5251451036098</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>111.5361117049709</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>42.5313457611372</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4197,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>243.2577348836416</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2277.953133796419</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1703.012869240227</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1344.747170633476</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>958.958918035232</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>547.9730132456245</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839474</v>
+        <v>132.900563090621</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052371</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609173</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136268</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136268</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410105</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066534</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796419</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>2277.953133796419</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="Y2" t="n">
-        <v>2277.953133796419</v>
+        <v>2071.975386180638</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811102</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999832</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387319</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332764</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601614</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927795</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064709</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158138</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297194</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199867</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471665</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266132</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780107</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501038</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>529.017994137768</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553749</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218346</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218346</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218346</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279956</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764919</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="V4" t="n">
-        <v>1767.918581386758</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>1548.361223971664</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>1320.371673073647</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>1099.579093930117</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1648.004869410821</v>
+        <v>2034.604709474941</v>
       </c>
       <c r="C5" t="n">
-        <v>1279.042352470409</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>920.7766538636586</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>920.7766538636586</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
         <v>821.1650657389509</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y5" t="n">
-        <v>2034.604709474942</v>
+        <v>2034.604709474941</v>
       </c>
     </row>
     <row r="6">
@@ -4622,64 +4622,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064585</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>945.3964936596652</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>776.4603107317583</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>626.3436713194226</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U7" t="n">
-        <v>1733.185899555685</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="V7" t="n">
-        <v>1478.501411349798</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1575.827088531452</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1347.837537633435</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>1127.044958489905</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1698.50962791956</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="C8" t="n">
-        <v>1698.50962791956</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D8" t="n">
-        <v>1340.24392931281</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>954.4556767145652</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>543.4697719249577</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4801,55 +4801,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3319.717920169421</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3066.187443443257</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2735.124556099686</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.97538618064</v>
+        <v>2382.355900829572</v>
       </c>
       <c r="X8" t="n">
-        <v>1698.50962791956</v>
+        <v>2008.890142568492</v>
       </c>
       <c r="Y8" t="n">
-        <v>1698.50962791956</v>
+        <v>1618.75081059268</v>
       </c>
     </row>
     <row r="9">
@@ -4877,25 +4877,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>848.0708164780106</v>
+        <v>385.564938772426</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>216.6287558445191</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1849.200058761417</v>
       </c>
       <c r="U10" t="n">
-        <v>1733.185899555685</v>
+        <v>1560.097191887061</v>
       </c>
       <c r="V10" t="n">
-        <v>1478.501411349798</v>
+        <v>1305.412703681174</v>
       </c>
       <c r="W10" t="n">
-        <v>1478.501411349798</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X10" t="n">
-        <v>1250.51186045178</v>
+        <v>788.0059827461959</v>
       </c>
       <c r="Y10" t="n">
-        <v>1029.71928130825</v>
+        <v>567.2134036026657</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5035,58 +5035,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5114,19 +5114,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
         <v>1373.553594266881</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5477693179085</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D13" t="n">
-        <v>762.5477693179085</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5260,22 +5260,22 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
@@ -5287,16 +5287,16 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,16 +5354,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
         <v>1373.553594266881</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>915.1035305473698</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>746.1673476194629</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D16" t="n">
-        <v>596.0507082071272</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E16" t="n">
-        <v>448.1376146247341</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>301.2476671268237</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>134.0515678417036</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>134.0515678417036</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487567</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1363.885660588917</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1135.8961096909</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>915.1035305473698</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5512,10 +5512,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075816</v>
@@ -5533,7 +5533,7 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5591,22 +5591,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327652</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C19" t="n">
-        <v>594.8179559048583</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>444.7013164925226</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>444.7013164925226</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797189</v>
@@ -5700,25 +5700,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5740,28 +5740,28 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355938</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>762.547769317909</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C22" t="n">
-        <v>762.547769317909</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4311299055732</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797189</v>
@@ -5934,28 +5934,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>580.8993044876688</v>
+        <v>983.3556038098242</v>
       </c>
       <c r="C25" t="n">
-        <v>411.9631215597619</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V25" t="n">
-        <v>1500.747069396417</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W25" t="n">
-        <v>1211.329899359456</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X25" t="n">
-        <v>983.3403484614387</v>
+        <v>1385.796647783594</v>
       </c>
       <c r="Y25" t="n">
-        <v>762.5477693179085</v>
+        <v>1165.004068640064</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,25 +6299,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>800.5007694647277</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="C28" t="n">
-        <v>631.5645865368208</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
         <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>1975.033022579363</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1720.348534373476</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1430.931364336515</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1202.941813438498</v>
+        <v>1035.165434399143</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1492342949674</v>
+        <v>814.372855255613</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>762.5477693179085</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>593.6115863900017</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6730,10 +6730,10 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
         <v>3820.749612123002</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="C34" t="n">
-        <v>513.8536007400712</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="D34" t="n">
-        <v>363.7369613277355</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="E34" t="n">
-        <v>363.7369613277355</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F34" t="n">
-        <v>363.7369613277355</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1806.233497455525</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1551.549009249638</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1262.131839212678</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>1034.14228831466</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>813.3497091711303</v>
       </c>
     </row>
     <row r="35">
@@ -6934,13 +6934,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1337.934786622704</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>365.9405071576786</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>198.7444078725585</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>2104.263230450254</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1849.578742244367</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1560.161572207407</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1332.172021309389</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1111.379442165859</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7168,16 +7168,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,22 +7186,22 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T38" t="n">
         <v>4405.252601474784</v>
@@ -7210,7 +7210,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852889</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>692.9625378792909</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,55 +7545,55 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>632.7243904253734</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>632.7243904253734</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
         <v>2264.108249235165</v>
@@ -7611,10 +7611,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="Y43" t="n">
-        <v>762.5477693179085</v>
+        <v>1098.667160263526</v>
       </c>
     </row>
     <row r="44">
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>696.7084350851671</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C46" t="n">
-        <v>527.7722521572603</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
   </sheetData>
@@ -8054,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-1.598721155460225e-12</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23415,16 +23415,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="E13" t="n">
-        <v>16.89590291932146</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>118.6564717779744</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>41.43328057277111</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>123.7828069546813</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>19.60579027761547</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>84.24553961896777</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>40.23897475306285</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>32.89260457059962</v>
       </c>
       <c r="D25" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24457,7 +24457,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -24603,10 +24603,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>68.4978425493139</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>51.30683507832694</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D31" t="n">
-        <v>111.1976478713722</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>38.5977558415268</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>50.29392045468899</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>36.41624546988311</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>127.9379057921825</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>114.158440889165</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51.30683507832748</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>114.1735436840663</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>106.0841272570752</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>43.26526345294937</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>941027.4129087658</v>
+        <v>941027.412908766</v>
       </c>
     </row>
     <row r="10">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>941027.412908766</v>
+        <v>941027.4129087658</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>941027.4129087658</v>
+        <v>941027.412908766</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>941027.412908766</v>
+        <v>941027.4129087657</v>
       </c>
     </row>
   </sheetData>
@@ -26319,10 +26319,10 @@
         <v>492625.06191857</v>
       </c>
       <c r="D2" t="n">
-        <v>492625.06191857</v>
+        <v>492625.0619185703</v>
       </c>
       <c r="E2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140037</v>
       </c>
       <c r="F2" t="n">
         <v>484287.9598140038</v>
@@ -26334,19 +26334,19 @@
         <v>484287.9598140036</v>
       </c>
       <c r="I2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="J2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="K2" t="n">
-        <v>484287.9598140037</v>
+        <v>484287.9598140036</v>
       </c>
       <c r="L2" t="n">
         <v>484287.9598140036</v>
       </c>
       <c r="M2" t="n">
-        <v>484287.9598140036</v>
+        <v>484287.9598140033</v>
       </c>
       <c r="N2" t="n">
         <v>484287.9598140037</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319389</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319398</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.8428831941</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
@@ -26441,25 +26441,25 @@
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="L4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
-      <c r="K4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26524,46 +26524,46 @@
         <v>-1036847.46725361</v>
       </c>
       <c r="C6" t="n">
-        <v>291897.2784739833</v>
+        <v>291897.2784739827</v>
       </c>
       <c r="D6" t="n">
-        <v>291897.2784739827</v>
+        <v>291897.2784739831</v>
       </c>
       <c r="E6" t="n">
-        <v>43798.78081654171</v>
+        <v>44111.42214546278</v>
       </c>
       <c r="F6" t="n">
-        <v>369211.242623897</v>
+        <v>369523.8839528182</v>
       </c>
       <c r="G6" t="n">
-        <v>369211.2426238966</v>
+        <v>369523.8839528178</v>
       </c>
       <c r="H6" t="n">
-        <v>369211.2426238967</v>
+        <v>369523.8839528181</v>
       </c>
       <c r="I6" t="n">
-        <v>369211.2426238971</v>
+        <v>369523.8839528181</v>
       </c>
       <c r="J6" t="n">
-        <v>151680.0402266193</v>
+        <v>151992.6815555406</v>
       </c>
       <c r="K6" t="n">
-        <v>369211.2426238969</v>
+        <v>369523.8839528181</v>
       </c>
       <c r="L6" t="n">
-        <v>369211.2426238968</v>
+        <v>369523.883952818</v>
       </c>
       <c r="M6" t="n">
-        <v>284156.214688385</v>
+        <v>284468.8560173059</v>
       </c>
       <c r="N6" t="n">
-        <v>369211.2426238969</v>
+        <v>369523.8839528181</v>
       </c>
       <c r="O6" t="n">
-        <v>369211.2426238969</v>
+        <v>369523.8839528181</v>
       </c>
       <c r="P6" t="n">
-        <v>369211.2426238967</v>
+        <v>369523.883952818</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26810,13 +26810,13 @@
         <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="K4" t="n">
         <v>1172.708288099648</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1172.708288099648</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>66.54216182876996</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>270.4601319683932</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>171.9462208285107</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,13 +27593,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>94.35543628911034</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>307.4571019070336</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>308.2605734982509</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27794,7 +27794,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>94.0442761581327</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>27.50236604516823</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>274.9183408758533</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>198.0889477142687</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>142.2354048423647</v>
       </c>
       <c r="U10" t="n">
-        <v>94.0442761581327</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31843,13 +31843,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,7 +32086,7 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982894</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32311,7 +32311,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32323,13 +32323,13 @@
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>446.012731199064</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32548,7 +32548,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32563,10 +32563,10 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>669.466988500007</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>339.9772972286967</v>
       </c>
       <c r="N42" t="n">
-        <v>752.2150000824579</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35491,13 +35491,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,7 +35734,7 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>302.093457676271</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35971,13 +35971,13 @@
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36211,10 +36211,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,16 +36442,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,16 +37153,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>526.8707440555626</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,16 +37627,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>197.8432633066783</v>
       </c>
       <c r="N42" t="n">
-        <v>620.8732879991246</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,16 +38101,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
